--- a/Excel/allResolution.xlsx
+++ b/Excel/allResolution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Res3456</t>
+  </si>
+  <si>
+    <t>Je ne sais pas</t>
+  </si>
+  <si>
+    <t>DCTB</t>
+  </si>
+  <si>
+    <t>2018-11-08</t>
+  </si>
+  <si>
+    <t>bah rien</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +483,34 @@
         <v>26</v>
       </c>
       <c r="J2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Excel/allResolution.xlsx
+++ b/Excel/allResolution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Numéro de projet</t>
   </si>
   <si>
+    <t>État</t>
+  </si>
+  <si>
     <t>agent_id</t>
   </si>
   <si>
@@ -65,19 +68,37 @@
     <t>none</t>
   </si>
   <si>
-    <t>Res3456</t>
-  </si>
-  <si>
-    <t>Je ne sais pas</t>
-  </si>
-  <si>
-    <t>DCTB</t>
+    <t>En attente de la prise en charge par un agent</t>
+  </si>
+  <si>
+    <t>CTB6X4</t>
+  </si>
+  <si>
+    <t>Fermeture cour</t>
   </si>
   <si>
     <t>2018-11-08</t>
   </si>
   <si>
-    <t>bah rien</t>
+    <t>voir conseil de septembre</t>
+  </si>
+  <si>
+    <t>UGX18</t>
+  </si>
+  <si>
+    <t>Association cour</t>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+  </si>
+  <si>
+    <t>A debatre</t>
+  </si>
+  <si>
+    <t>Pris en charge</t>
+  </si>
+  <si>
+    <t>colf03</t>
   </si>
 </sst>
 </file>
@@ -416,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,62 +476,104 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>26</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="J3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Excel/allResolution.xlsx
+++ b/Excel/allResolution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -99,6 +99,42 @@
   </si>
   <si>
     <t>colf03</t>
+  </si>
+  <si>
+    <t>test185</t>
+  </si>
+  <si>
+    <t>dadag</t>
+  </si>
+  <si>
+    <t>DCTB</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>dafgf</t>
+  </si>
+  <si>
+    <t>fada</t>
+  </si>
+  <si>
+    <t>sada</t>
+  </si>
+  <si>
+    <t>dags</t>
+  </si>
+  <si>
+    <t>Enregistré</t>
+  </si>
+  <si>
+    <t>afgg</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>fdhg</t>
   </si>
 </sst>
 </file>
@@ -437,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +610,99 @@
       <c r="K4" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Excel/allResolution.xlsx
+++ b/Excel/allResolution.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Numéro réception</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+  <si>
+    <t>allResolution</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Résolutions reçue</t>
   </si>
   <si>
     <t>Sujet</t>
@@ -473,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,224 +488,229 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K4"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5"/>
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="I7">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7"/>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Excel/allResolution.xlsx
+++ b/Excel/allResolution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>allResolution</t>
   </si>
@@ -53,10 +53,10 @@
     <t>agent_id</t>
   </si>
   <si>
-    <t>CTB1X</t>
-  </si>
-  <si>
-    <t>Changement pré requis</t>
+    <t>adafg</t>
+  </si>
+  <si>
+    <t>Modification programme</t>
   </si>
   <si>
     <t>1CTB</t>
@@ -65,79 +65,64 @@
     <t>DII</t>
   </si>
   <si>
-    <t>2018-11-07</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>En attente de la prise en charge par un agent</t>
-  </si>
-  <si>
-    <t>CTB6X4</t>
-  </si>
-  <si>
-    <t>Fermeture cour</t>
-  </si>
-  <si>
-    <t>2018-11-08</t>
-  </si>
-  <si>
-    <t>voir conseil de septembre</t>
-  </si>
-  <si>
-    <t>UGX18</t>
-  </si>
-  <si>
-    <t>Association cour</t>
-  </si>
-  <si>
-    <t>2018-11-15</t>
-  </si>
-  <si>
-    <t>A debatre</t>
-  </si>
-  <si>
-    <t>Pris en charge</t>
-  </si>
-  <si>
-    <t>colf03</t>
-  </si>
-  <si>
-    <t>test185</t>
-  </si>
-  <si>
-    <t>dadag</t>
+    <t>2018-11-22</t>
+  </si>
+  <si>
+    <t>signature requise</t>
+  </si>
+  <si>
+    <t>Enregistré</t>
+  </si>
+  <si>
+    <t>X145SF</t>
+  </si>
+  <si>
+    <t>annulation</t>
+  </si>
+  <si>
+    <t>1INF</t>
   </si>
   <si>
     <t>DCTB</t>
   </si>
   <si>
-    <t>2018-11-19</t>
-  </si>
-  <si>
-    <t>dafgf</t>
-  </si>
-  <si>
-    <t>fada</t>
-  </si>
-  <si>
-    <t>sada</t>
-  </si>
-  <si>
-    <t>dags</t>
-  </si>
-  <si>
-    <t>Enregistré</t>
-  </si>
-  <si>
-    <t>afgg</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>fdhg</t>
+    <t>changement</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>Traitement requis</t>
+  </si>
+  <si>
+    <t>2018-11-29</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>12585XC45</t>
+  </si>
+  <si>
+    <t>TestTypeReso</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>nouvelle</t>
+  </si>
+  <si>
+    <t>2018-12-05</t>
+  </si>
+  <si>
+    <t>Synthese</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>synthese345</t>
   </si>
 </sst>
 </file>
@@ -476,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +511,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -540,15 +525,15 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3"/>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3"/>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -557,7 +542,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -566,20 +551,20 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4"/>
+        <v>22</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -588,62 +573,60 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5"/>
+        <v>22</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
         <v>32</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -652,65 +635,123 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7"/>
+        <v>22</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>12345</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="G8"/>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
+      <c r="H8"/>
       <c r="I8">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>6789432</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
         <v>37</v>
       </c>
-      <c r="K8"/>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>98764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
